--- a/TA buku/Results/Sentiwordnet/hasil_lex_FOOD.xlsx
+++ b/TA buku/Results/Sentiwordnet/hasil_lex_FOOD.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="533" uniqueCount="294">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="535" uniqueCount="295">
   <si>
     <t>id</t>
   </si>
@@ -670,7 +670,7 @@
     <t>interesting</t>
   </si>
   <si>
-    <t>well</t>
+    <t>worth</t>
   </si>
   <si>
     <t>worth|worth</t>
@@ -682,7 +682,7 @@
     <t>great</t>
   </si>
   <si>
-    <t>overpriced</t>
+    <t>soggy</t>
   </si>
   <si>
     <t>great|price</t>
@@ -718,13 +718,10 @@
     <t>exceptional</t>
   </si>
   <si>
-    <t>worth</t>
-  </si>
-  <si>
     <t>nasty|small</t>
   </si>
   <si>
-    <t>like</t>
+    <t>-|-|-</t>
   </si>
   <si>
     <t>delight|delight|bargain</t>
@@ -769,6 +766,9 @@
     <t>good|good</t>
   </si>
   <si>
+    <t>-</t>
+  </si>
+  <si>
     <t>trendy|trendy</t>
   </si>
   <si>
@@ -802,52 +802,55 @@
     <t>fresh|good|great|kimchi|salad</t>
   </si>
   <si>
+    <t>fishy|fishy|fishy|fishy|fishy|fishy</t>
+  </si>
+  <si>
+    <t>hot|hot|dog</t>
+  </si>
+  <si>
+    <t>stale</t>
+  </si>
+  <si>
+    <t>lousy|tiny</t>
+  </si>
+  <si>
+    <t>consistently</t>
+  </si>
+  <si>
+    <t>amazing|amazing</t>
+  </si>
+  <si>
+    <t>greasy|greasy|dry|loud|greasy</t>
+  </si>
+  <si>
+    <t>service</t>
+  </si>
+  <si>
+    <t>only|chicken</t>
+  </si>
+  <si>
+    <t>more</t>
+  </si>
+  <si>
+    <t>good|awesome|good|tempura|awesome</t>
+  </si>
+  <si>
+    <t>heavenly|heavenly|heavenly|heavenly|heavenly|heavenly|heavenly</t>
+  </si>
+  <si>
+    <t>prepared</t>
+  </si>
+  <si>
+    <t>dissapointing|dissapointing|dissapointing</t>
+  </si>
+  <si>
     <t>bland</t>
   </si>
   <si>
-    <t>hot|hot|dog</t>
-  </si>
-  <si>
-    <t>stale</t>
-  </si>
-  <si>
-    <t>lousy|tiny</t>
-  </si>
-  <si>
-    <t>consistently</t>
-  </si>
-  <si>
-    <t>amazing|amazing</t>
-  </si>
-  <si>
-    <t>greasy|greasy|dry|loud|greasy</t>
-  </si>
-  <si>
-    <t>service</t>
-  </si>
-  <si>
-    <t>only|chicken</t>
-  </si>
-  <si>
-    <t>more</t>
-  </si>
-  <si>
-    <t>good|awesome|good|tempura|awesome</t>
-  </si>
-  <si>
-    <t>heavenly</t>
-  </si>
-  <si>
-    <t>pretty</t>
-  </si>
-  <si>
-    <t>prepared</t>
-  </si>
-  <si>
     <t>incredible|incredible|incredible</t>
   </si>
   <si>
-    <t>cold</t>
+    <t>cold|cold</t>
   </si>
   <si>
     <t>fancy|good</t>
@@ -1290,10 +1293,10 @@
         <v>217</v>
       </c>
       <c r="E2" t="s">
-        <v>292</v>
+        <v>293</v>
       </c>
       <c r="F2" t="s">
-        <v>292</v>
+        <v>293</v>
       </c>
     </row>
     <row r="3" spans="1:6">
@@ -1310,10 +1313,10 @@
         <v>218</v>
       </c>
       <c r="E3" t="s">
-        <v>292</v>
+        <v>293</v>
       </c>
       <c r="F3" t="s">
-        <v>292</v>
+        <v>293</v>
       </c>
     </row>
     <row r="4" spans="1:6">
@@ -1330,10 +1333,10 @@
         <v>219</v>
       </c>
       <c r="E4" t="s">
-        <v>292</v>
+        <v>293</v>
       </c>
       <c r="F4" t="s">
-        <v>292</v>
+        <v>293</v>
       </c>
     </row>
     <row r="5" spans="1:6">
@@ -1350,10 +1353,10 @@
         <v>220</v>
       </c>
       <c r="E5" t="s">
-        <v>292</v>
+        <v>293</v>
       </c>
       <c r="F5" t="s">
-        <v>292</v>
+        <v>293</v>
       </c>
     </row>
     <row r="6" spans="1:6">
@@ -1370,10 +1373,10 @@
         <v>221</v>
       </c>
       <c r="E6" t="s">
-        <v>292</v>
+        <v>293</v>
       </c>
       <c r="F6" t="s">
-        <v>292</v>
+        <v>293</v>
       </c>
     </row>
     <row r="7" spans="1:6">
@@ -1390,10 +1393,10 @@
         <v>222</v>
       </c>
       <c r="E7" t="s">
-        <v>293</v>
+        <v>294</v>
       </c>
       <c r="F7" t="s">
-        <v>293</v>
+        <v>294</v>
       </c>
     </row>
     <row r="8" spans="1:6">
@@ -1410,10 +1413,10 @@
         <v>223</v>
       </c>
       <c r="E8" t="s">
-        <v>292</v>
+        <v>293</v>
       </c>
       <c r="F8" t="s">
-        <v>292</v>
+        <v>293</v>
       </c>
     </row>
     <row r="9" spans="1:6">
@@ -1430,10 +1433,10 @@
         <v>224</v>
       </c>
       <c r="E9" t="s">
-        <v>293</v>
+        <v>294</v>
       </c>
       <c r="F9" t="s">
-        <v>293</v>
+        <v>294</v>
       </c>
     </row>
     <row r="10" spans="1:6">
@@ -1450,10 +1453,10 @@
         <v>225</v>
       </c>
       <c r="E10" t="s">
-        <v>292</v>
+        <v>293</v>
       </c>
       <c r="F10" t="s">
-        <v>293</v>
+        <v>294</v>
       </c>
     </row>
     <row r="11" spans="1:6">
@@ -1470,10 +1473,10 @@
         <v>226</v>
       </c>
       <c r="E11" t="s">
-        <v>292</v>
+        <v>293</v>
       </c>
       <c r="F11" t="s">
-        <v>292</v>
+        <v>293</v>
       </c>
     </row>
     <row r="12" spans="1:6">
@@ -1490,10 +1493,10 @@
         <v>227</v>
       </c>
       <c r="E12" t="s">
-        <v>292</v>
+        <v>293</v>
       </c>
       <c r="F12" t="s">
-        <v>292</v>
+        <v>293</v>
       </c>
     </row>
     <row r="13" spans="1:6">
@@ -1510,10 +1513,10 @@
         <v>228</v>
       </c>
       <c r="E13" t="s">
-        <v>292</v>
+        <v>293</v>
       </c>
       <c r="F13" t="s">
-        <v>293</v>
+        <v>294</v>
       </c>
     </row>
     <row r="14" spans="1:6">
@@ -1530,10 +1533,10 @@
         <v>229</v>
       </c>
       <c r="E14" t="s">
-        <v>293</v>
+        <v>294</v>
       </c>
       <c r="F14" t="s">
-        <v>293</v>
+        <v>294</v>
       </c>
     </row>
     <row r="15" spans="1:6">
@@ -1550,10 +1553,10 @@
         <v>221</v>
       </c>
       <c r="E15" t="s">
-        <v>292</v>
+        <v>293</v>
       </c>
       <c r="F15" t="s">
-        <v>292</v>
+        <v>293</v>
       </c>
     </row>
     <row r="16" spans="1:6">
@@ -1570,10 +1573,10 @@
         <v>230</v>
       </c>
       <c r="E16" t="s">
-        <v>293</v>
+        <v>294</v>
       </c>
       <c r="F16" t="s">
-        <v>293</v>
+        <v>294</v>
       </c>
     </row>
     <row r="17" spans="1:6">
@@ -1590,10 +1593,10 @@
         <v>231</v>
       </c>
       <c r="E17" t="s">
-        <v>292</v>
+        <v>293</v>
       </c>
       <c r="F17" t="s">
-        <v>292</v>
+        <v>293</v>
       </c>
     </row>
     <row r="18" spans="1:6">
@@ -1610,10 +1613,10 @@
         <v>232</v>
       </c>
       <c r="E18" t="s">
-        <v>292</v>
+        <v>293</v>
       </c>
       <c r="F18" t="s">
-        <v>293</v>
+        <v>294</v>
       </c>
     </row>
     <row r="19" spans="1:6">
@@ -1630,10 +1633,10 @@
         <v>233</v>
       </c>
       <c r="E19" t="s">
-        <v>292</v>
+        <v>293</v>
       </c>
       <c r="F19" t="s">
-        <v>292</v>
+        <v>293</v>
       </c>
     </row>
     <row r="20" spans="1:6">
@@ -1647,13 +1650,13 @@
         <v>129</v>
       </c>
       <c r="D20" t="s">
-        <v>234</v>
+        <v>218</v>
       </c>
       <c r="E20" t="s">
-        <v>292</v>
+        <v>293</v>
       </c>
       <c r="F20" t="s">
-        <v>292</v>
+        <v>293</v>
       </c>
     </row>
     <row r="21" spans="1:6">
@@ -1670,10 +1673,10 @@
         <v>230</v>
       </c>
       <c r="E21" t="s">
-        <v>293</v>
+        <v>294</v>
       </c>
       <c r="F21" t="s">
-        <v>293</v>
+        <v>294</v>
       </c>
     </row>
     <row r="22" spans="1:6">
@@ -1687,13 +1690,13 @@
         <v>131</v>
       </c>
       <c r="D22" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="E22" t="s">
-        <v>292</v>
+        <v>293</v>
       </c>
       <c r="F22" t="s">
-        <v>292</v>
+        <v>293</v>
       </c>
     </row>
     <row r="23" spans="1:6">
@@ -1707,13 +1710,13 @@
         <v>132</v>
       </c>
       <c r="D23" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="E23" t="s">
-        <v>293</v>
+        <v>294</v>
       </c>
       <c r="F23" t="s">
-        <v>292</v>
+        <v>294</v>
       </c>
     </row>
     <row r="24" spans="1:6">
@@ -1730,10 +1733,10 @@
         <v>227</v>
       </c>
       <c r="E24" t="s">
-        <v>292</v>
+        <v>293</v>
       </c>
       <c r="F24" t="s">
-        <v>292</v>
+        <v>293</v>
       </c>
     </row>
     <row r="25" spans="1:6">
@@ -1747,13 +1750,13 @@
         <v>134</v>
       </c>
       <c r="D25" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="E25" t="s">
-        <v>292</v>
+        <v>293</v>
       </c>
       <c r="F25" t="s">
-        <v>292</v>
+        <v>293</v>
       </c>
     </row>
     <row r="26" spans="1:6">
@@ -1767,13 +1770,13 @@
         <v>135</v>
       </c>
       <c r="D26" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="E26" t="s">
-        <v>292</v>
+        <v>293</v>
       </c>
       <c r="F26" t="s">
-        <v>293</v>
+        <v>294</v>
       </c>
     </row>
     <row r="27" spans="1:6">
@@ -1790,10 +1793,10 @@
         <v>227</v>
       </c>
       <c r="E27" t="s">
-        <v>292</v>
+        <v>293</v>
       </c>
       <c r="F27" t="s">
-        <v>292</v>
+        <v>293</v>
       </c>
     </row>
     <row r="28" spans="1:6">
@@ -1807,13 +1810,13 @@
         <v>137</v>
       </c>
       <c r="D28" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="E28" t="s">
-        <v>292</v>
+        <v>293</v>
       </c>
       <c r="F28" t="s">
-        <v>293</v>
+        <v>294</v>
       </c>
     </row>
     <row r="29" spans="1:6">
@@ -1830,10 +1833,10 @@
         <v>221</v>
       </c>
       <c r="E29" t="s">
-        <v>292</v>
+        <v>293</v>
       </c>
       <c r="F29" t="s">
-        <v>292</v>
+        <v>293</v>
       </c>
     </row>
     <row r="30" spans="1:6">
@@ -1847,13 +1850,13 @@
         <v>139</v>
       </c>
       <c r="D30" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="E30" t="s">
-        <v>292</v>
+        <v>293</v>
       </c>
       <c r="F30" t="s">
-        <v>292</v>
+        <v>293</v>
       </c>
     </row>
     <row r="31" spans="1:6">
@@ -1867,13 +1870,13 @@
         <v>140</v>
       </c>
       <c r="D31" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="E31" t="s">
-        <v>293</v>
+        <v>294</v>
       </c>
       <c r="F31" t="s">
-        <v>293</v>
+        <v>294</v>
       </c>
     </row>
     <row r="32" spans="1:6">
@@ -1887,13 +1890,13 @@
         <v>141</v>
       </c>
       <c r="D32" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="E32" t="s">
-        <v>292</v>
+        <v>293</v>
       </c>
       <c r="F32" t="s">
-        <v>292</v>
+        <v>293</v>
       </c>
     </row>
     <row r="33" spans="1:6">
@@ -1907,13 +1910,13 @@
         <v>142</v>
       </c>
       <c r="D33" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="E33" t="s">
-        <v>293</v>
+        <v>294</v>
       </c>
       <c r="F33" t="s">
-        <v>293</v>
+        <v>294</v>
       </c>
     </row>
     <row r="34" spans="1:6">
@@ -1930,10 +1933,10 @@
         <v>221</v>
       </c>
       <c r="E34" t="s">
-        <v>292</v>
+        <v>293</v>
       </c>
       <c r="F34" t="s">
-        <v>292</v>
+        <v>293</v>
       </c>
     </row>
     <row r="35" spans="1:6">
@@ -1947,13 +1950,13 @@
         <v>144</v>
       </c>
       <c r="D35" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="E35" t="s">
-        <v>292</v>
+        <v>293</v>
       </c>
       <c r="F35" t="s">
-        <v>292</v>
+        <v>293</v>
       </c>
     </row>
     <row r="36" spans="1:6">
@@ -1967,13 +1970,13 @@
         <v>145</v>
       </c>
       <c r="D36" t="s">
-        <v>234</v>
+        <v>218</v>
       </c>
       <c r="E36" t="s">
-        <v>292</v>
+        <v>293</v>
       </c>
       <c r="F36" t="s">
-        <v>292</v>
+        <v>293</v>
       </c>
     </row>
     <row r="37" spans="1:6">
@@ -1990,10 +1993,10 @@
         <v>221</v>
       </c>
       <c r="E37" t="s">
-        <v>292</v>
+        <v>293</v>
       </c>
       <c r="F37" t="s">
-        <v>292</v>
+        <v>293</v>
       </c>
     </row>
     <row r="38" spans="1:6">
@@ -2010,10 +2013,10 @@
         <v>221</v>
       </c>
       <c r="E38" t="s">
-        <v>292</v>
+        <v>293</v>
       </c>
       <c r="F38" t="s">
-        <v>292</v>
+        <v>293</v>
       </c>
     </row>
     <row r="39" spans="1:6">
@@ -2027,13 +2030,13 @@
         <v>148</v>
       </c>
       <c r="D39" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="E39" t="s">
-        <v>292</v>
+        <v>293</v>
       </c>
       <c r="F39" t="s">
-        <v>293</v>
+        <v>294</v>
       </c>
     </row>
     <row r="40" spans="1:6">
@@ -2047,13 +2050,13 @@
         <v>149</v>
       </c>
       <c r="D40" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="E40" t="s">
-        <v>292</v>
+        <v>293</v>
       </c>
       <c r="F40" t="s">
-        <v>292</v>
+        <v>293</v>
       </c>
     </row>
     <row r="41" spans="1:6">
@@ -2067,13 +2070,13 @@
         <v>150</v>
       </c>
       <c r="D41" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="E41" t="s">
-        <v>292</v>
+        <v>293</v>
       </c>
       <c r="F41" t="s">
-        <v>293</v>
+        <v>294</v>
       </c>
     </row>
     <row r="42" spans="1:6">
@@ -2090,10 +2093,10 @@
         <v>227</v>
       </c>
       <c r="E42" t="s">
-        <v>292</v>
+        <v>293</v>
       </c>
       <c r="F42" t="s">
-        <v>292</v>
+        <v>293</v>
       </c>
     </row>
     <row r="43" spans="1:6">
@@ -2107,13 +2110,13 @@
         <v>152</v>
       </c>
       <c r="D43" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="E43" t="s">
-        <v>292</v>
+        <v>293</v>
       </c>
       <c r="F43" t="s">
-        <v>293</v>
+        <v>294</v>
       </c>
     </row>
     <row r="44" spans="1:6">
@@ -2127,13 +2130,13 @@
         <v>153</v>
       </c>
       <c r="D44" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="E44" t="s">
-        <v>292</v>
+        <v>293</v>
       </c>
       <c r="F44" t="s">
-        <v>292</v>
+        <v>293</v>
       </c>
     </row>
     <row r="45" spans="1:6">
@@ -2147,13 +2150,13 @@
         <v>154</v>
       </c>
       <c r="D45" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="E45" t="s">
-        <v>292</v>
+        <v>293</v>
       </c>
       <c r="F45" t="s">
-        <v>292</v>
+        <v>293</v>
       </c>
     </row>
     <row r="46" spans="1:6">
@@ -2167,13 +2170,13 @@
         <v>155</v>
       </c>
       <c r="D46" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="E46" t="s">
-        <v>292</v>
+        <v>293</v>
       </c>
       <c r="F46" t="s">
-        <v>292</v>
+        <v>293</v>
       </c>
     </row>
     <row r="47" spans="1:6">
@@ -2187,13 +2190,13 @@
         <v>156</v>
       </c>
       <c r="D47" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="E47" t="s">
-        <v>292</v>
+        <v>293</v>
       </c>
       <c r="F47" t="s">
-        <v>292</v>
+        <v>293</v>
       </c>
     </row>
     <row r="48" spans="1:6">
@@ -2206,11 +2209,14 @@
       <c r="C48" t="s">
         <v>157</v>
       </c>
+      <c r="D48" t="s">
+        <v>250</v>
+      </c>
       <c r="E48" t="s">
-        <v>293</v>
+        <v>294</v>
       </c>
       <c r="F48" t="s">
-        <v>293</v>
+        <v>294</v>
       </c>
     </row>
     <row r="49" spans="1:6">
@@ -2227,10 +2233,10 @@
         <v>251</v>
       </c>
       <c r="E49" t="s">
-        <v>292</v>
+        <v>293</v>
       </c>
       <c r="F49" t="s">
-        <v>292</v>
+        <v>293</v>
       </c>
     </row>
     <row r="50" spans="1:6">
@@ -2247,10 +2253,10 @@
         <v>252</v>
       </c>
       <c r="E50" t="s">
-        <v>293</v>
+        <v>294</v>
       </c>
       <c r="F50" t="s">
-        <v>293</v>
+        <v>294</v>
       </c>
     </row>
     <row r="51" spans="1:6">
@@ -2267,10 +2273,10 @@
         <v>253</v>
       </c>
       <c r="E51" t="s">
-        <v>292</v>
+        <v>293</v>
       </c>
       <c r="F51" t="s">
-        <v>292</v>
+        <v>293</v>
       </c>
     </row>
     <row r="52" spans="1:6">
@@ -2287,10 +2293,10 @@
         <v>227</v>
       </c>
       <c r="E52" t="s">
-        <v>292</v>
+        <v>293</v>
       </c>
       <c r="F52" t="s">
-        <v>292</v>
+        <v>293</v>
       </c>
     </row>
     <row r="53" spans="1:6">
@@ -2307,10 +2313,10 @@
         <v>254</v>
       </c>
       <c r="E53" t="s">
-        <v>292</v>
+        <v>293</v>
       </c>
       <c r="F53" t="s">
-        <v>292</v>
+        <v>293</v>
       </c>
     </row>
     <row r="54" spans="1:6">
@@ -2327,10 +2333,10 @@
         <v>255</v>
       </c>
       <c r="E54" t="s">
-        <v>293</v>
+        <v>294</v>
       </c>
       <c r="F54" t="s">
-        <v>293</v>
+        <v>294</v>
       </c>
     </row>
     <row r="55" spans="1:6">
@@ -2347,10 +2353,10 @@
         <v>227</v>
       </c>
       <c r="E55" t="s">
-        <v>292</v>
+        <v>293</v>
       </c>
       <c r="F55" t="s">
-        <v>292</v>
+        <v>293</v>
       </c>
     </row>
     <row r="56" spans="1:6">
@@ -2367,10 +2373,10 @@
         <v>256</v>
       </c>
       <c r="E56" t="s">
-        <v>292</v>
+        <v>293</v>
       </c>
       <c r="F56" t="s">
-        <v>293</v>
+        <v>294</v>
       </c>
     </row>
     <row r="57" spans="1:6">
@@ -2384,13 +2390,13 @@
         <v>166</v>
       </c>
       <c r="D57" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="E57" t="s">
-        <v>292</v>
+        <v>293</v>
       </c>
       <c r="F57" t="s">
-        <v>292</v>
+        <v>293</v>
       </c>
     </row>
     <row r="58" spans="1:6">
@@ -2407,10 +2413,10 @@
         <v>257</v>
       </c>
       <c r="E58" t="s">
-        <v>293</v>
+        <v>294</v>
       </c>
       <c r="F58" t="s">
-        <v>293</v>
+        <v>294</v>
       </c>
     </row>
     <row r="59" spans="1:6">
@@ -2423,11 +2429,14 @@
       <c r="C59" t="s">
         <v>168</v>
       </c>
+      <c r="D59" t="s">
+        <v>250</v>
+      </c>
       <c r="E59" t="s">
-        <v>293</v>
+        <v>294</v>
       </c>
       <c r="F59" t="s">
-        <v>293</v>
+        <v>294</v>
       </c>
     </row>
     <row r="60" spans="1:6">
@@ -2444,10 +2453,10 @@
         <v>258</v>
       </c>
       <c r="E60" t="s">
-        <v>293</v>
+        <v>294</v>
       </c>
       <c r="F60" t="s">
-        <v>292</v>
+        <v>293</v>
       </c>
     </row>
     <row r="61" spans="1:6">
@@ -2464,10 +2473,10 @@
         <v>227</v>
       </c>
       <c r="E61" t="s">
-        <v>292</v>
+        <v>293</v>
       </c>
       <c r="F61" t="s">
-        <v>292</v>
+        <v>293</v>
       </c>
     </row>
     <row r="62" spans="1:6">
@@ -2484,10 +2493,10 @@
         <v>259</v>
       </c>
       <c r="E62" t="s">
-        <v>292</v>
+        <v>293</v>
       </c>
       <c r="F62" t="s">
-        <v>293</v>
+        <v>294</v>
       </c>
     </row>
     <row r="63" spans="1:6">
@@ -2504,10 +2513,10 @@
         <v>260</v>
       </c>
       <c r="E63" t="s">
-        <v>292</v>
+        <v>293</v>
       </c>
       <c r="F63" t="s">
-        <v>293</v>
+        <v>294</v>
       </c>
     </row>
     <row r="64" spans="1:6">
@@ -2524,10 +2533,10 @@
         <v>261</v>
       </c>
       <c r="E64" t="s">
-        <v>292</v>
+        <v>293</v>
       </c>
       <c r="F64" t="s">
-        <v>292</v>
+        <v>293</v>
       </c>
     </row>
     <row r="65" spans="1:6">
@@ -2544,10 +2553,10 @@
         <v>227</v>
       </c>
       <c r="E65" t="s">
-        <v>292</v>
+        <v>293</v>
       </c>
       <c r="F65" t="s">
-        <v>292</v>
+        <v>293</v>
       </c>
     </row>
     <row r="66" spans="1:6">
@@ -2564,10 +2573,10 @@
         <v>262</v>
       </c>
       <c r="E66" t="s">
-        <v>293</v>
+        <v>294</v>
       </c>
       <c r="F66" t="s">
-        <v>293</v>
+        <v>294</v>
       </c>
     </row>
     <row r="67" spans="1:6">
@@ -2584,10 +2593,10 @@
         <v>263</v>
       </c>
       <c r="E67" t="s">
-        <v>292</v>
+        <v>293</v>
       </c>
       <c r="F67" t="s">
-        <v>292</v>
+        <v>293</v>
       </c>
     </row>
     <row r="68" spans="1:6">
@@ -2604,10 +2613,10 @@
         <v>264</v>
       </c>
       <c r="E68" t="s">
-        <v>293</v>
+        <v>294</v>
       </c>
       <c r="F68" t="s">
-        <v>293</v>
+        <v>294</v>
       </c>
     </row>
     <row r="69" spans="1:6">
@@ -2624,10 +2633,10 @@
         <v>265</v>
       </c>
       <c r="E69" t="s">
-        <v>293</v>
+        <v>294</v>
       </c>
       <c r="F69" t="s">
-        <v>293</v>
+        <v>294</v>
       </c>
     </row>
     <row r="70" spans="1:6">
@@ -2644,10 +2653,10 @@
         <v>266</v>
       </c>
       <c r="E70" t="s">
-        <v>292</v>
+        <v>293</v>
       </c>
       <c r="F70" t="s">
-        <v>292</v>
+        <v>293</v>
       </c>
     </row>
     <row r="71" spans="1:6">
@@ -2664,10 +2673,10 @@
         <v>267</v>
       </c>
       <c r="E71" t="s">
-        <v>292</v>
+        <v>293</v>
       </c>
       <c r="F71" t="s">
-        <v>292</v>
+        <v>293</v>
       </c>
     </row>
     <row r="72" spans="1:6">
@@ -2684,10 +2693,10 @@
         <v>268</v>
       </c>
       <c r="E72" t="s">
-        <v>293</v>
+        <v>294</v>
       </c>
       <c r="F72" t="s">
-        <v>293</v>
+        <v>294</v>
       </c>
     </row>
     <row r="73" spans="1:6">
@@ -2704,10 +2713,10 @@
         <v>269</v>
       </c>
       <c r="E73" t="s">
-        <v>292</v>
+        <v>293</v>
       </c>
       <c r="F73" t="s">
-        <v>293</v>
+        <v>294</v>
       </c>
     </row>
     <row r="74" spans="1:6">
@@ -2724,10 +2733,10 @@
         <v>230</v>
       </c>
       <c r="E74" t="s">
-        <v>293</v>
+        <v>294</v>
       </c>
       <c r="F74" t="s">
-        <v>293</v>
+        <v>294</v>
       </c>
     </row>
     <row r="75" spans="1:6">
@@ -2744,10 +2753,10 @@
         <v>270</v>
       </c>
       <c r="E75" t="s">
-        <v>292</v>
+        <v>293</v>
       </c>
       <c r="F75" t="s">
-        <v>293</v>
+        <v>294</v>
       </c>
     </row>
     <row r="76" spans="1:6">
@@ -2764,10 +2773,10 @@
         <v>271</v>
       </c>
       <c r="E76" t="s">
-        <v>292</v>
+        <v>293</v>
       </c>
       <c r="F76" t="s">
-        <v>293</v>
+        <v>294</v>
       </c>
     </row>
     <row r="77" spans="1:6">
@@ -2781,13 +2790,13 @@
         <v>186</v>
       </c>
       <c r="D77" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="E77" t="s">
-        <v>292</v>
+        <v>293</v>
       </c>
       <c r="F77" t="s">
-        <v>293</v>
+        <v>294</v>
       </c>
     </row>
     <row r="78" spans="1:6">
@@ -2804,10 +2813,10 @@
         <v>272</v>
       </c>
       <c r="E78" t="s">
-        <v>292</v>
+        <v>293</v>
       </c>
       <c r="F78" t="s">
-        <v>292</v>
+        <v>293</v>
       </c>
     </row>
     <row r="79" spans="1:6">
@@ -2824,10 +2833,10 @@
         <v>221</v>
       </c>
       <c r="E79" t="s">
-        <v>292</v>
+        <v>293</v>
       </c>
       <c r="F79" t="s">
-        <v>292</v>
+        <v>293</v>
       </c>
     </row>
     <row r="80" spans="1:6">
@@ -2844,10 +2853,10 @@
         <v>273</v>
       </c>
       <c r="E80" t="s">
-        <v>292</v>
+        <v>293</v>
       </c>
       <c r="F80" t="s">
-        <v>292</v>
+        <v>293</v>
       </c>
     </row>
     <row r="81" spans="1:6">
@@ -2861,13 +2870,13 @@
         <v>190</v>
       </c>
       <c r="D81" t="s">
-        <v>274</v>
+        <v>220</v>
       </c>
       <c r="E81" t="s">
-        <v>292</v>
+        <v>293</v>
       </c>
       <c r="F81" t="s">
-        <v>292</v>
+        <v>293</v>
       </c>
     </row>
     <row r="82" spans="1:6">
@@ -2881,13 +2890,13 @@
         <v>191</v>
       </c>
       <c r="D82" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="E82" t="s">
-        <v>292</v>
+        <v>293</v>
       </c>
       <c r="F82" t="s">
-        <v>292</v>
+        <v>293</v>
       </c>
     </row>
     <row r="83" spans="1:6">
@@ -2901,13 +2910,13 @@
         <v>192</v>
       </c>
       <c r="D83" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="E83" t="s">
-        <v>292</v>
+        <v>293</v>
       </c>
       <c r="F83" t="s">
-        <v>293</v>
+        <v>294</v>
       </c>
     </row>
     <row r="84" spans="1:6">
@@ -2924,10 +2933,10 @@
         <v>221</v>
       </c>
       <c r="E84" t="s">
-        <v>292</v>
+        <v>293</v>
       </c>
       <c r="F84" t="s">
-        <v>292</v>
+        <v>293</v>
       </c>
     </row>
     <row r="85" spans="1:6">
@@ -2944,10 +2953,10 @@
         <v>227</v>
       </c>
       <c r="E85" t="s">
-        <v>292</v>
+        <v>293</v>
       </c>
       <c r="F85" t="s">
-        <v>292</v>
+        <v>293</v>
       </c>
     </row>
     <row r="86" spans="1:6">
@@ -2961,13 +2970,13 @@
         <v>195</v>
       </c>
       <c r="D86" t="s">
-        <v>236</v>
+        <v>275</v>
       </c>
       <c r="E86" t="s">
-        <v>292</v>
+        <v>293</v>
       </c>
       <c r="F86" t="s">
-        <v>292</v>
+        <v>294</v>
       </c>
     </row>
     <row r="87" spans="1:6">
@@ -2981,13 +2990,13 @@
         <v>196</v>
       </c>
       <c r="D87" t="s">
-        <v>236</v>
+        <v>276</v>
       </c>
       <c r="E87" t="s">
-        <v>293</v>
+        <v>294</v>
       </c>
       <c r="F87" t="s">
-        <v>292</v>
+        <v>294</v>
       </c>
     </row>
     <row r="88" spans="1:6">
@@ -3001,13 +3010,13 @@
         <v>197</v>
       </c>
       <c r="D88" t="s">
-        <v>276</v>
+        <v>277</v>
       </c>
       <c r="E88" t="s">
-        <v>292</v>
+        <v>293</v>
       </c>
       <c r="F88" t="s">
-        <v>292</v>
+        <v>293</v>
       </c>
     </row>
     <row r="89" spans="1:6">
@@ -3021,13 +3030,13 @@
         <v>198</v>
       </c>
       <c r="D89" t="s">
-        <v>277</v>
+        <v>278</v>
       </c>
       <c r="E89" t="s">
-        <v>293</v>
+        <v>294</v>
       </c>
       <c r="F89" t="s">
-        <v>293</v>
+        <v>294</v>
       </c>
     </row>
     <row r="90" spans="1:6">
@@ -3041,13 +3050,13 @@
         <v>199</v>
       </c>
       <c r="D90" t="s">
-        <v>278</v>
+        <v>279</v>
       </c>
       <c r="E90" t="s">
-        <v>293</v>
+        <v>294</v>
       </c>
       <c r="F90" t="s">
-        <v>292</v>
+        <v>293</v>
       </c>
     </row>
     <row r="91" spans="1:6">
@@ -3061,13 +3070,13 @@
         <v>200</v>
       </c>
       <c r="D91" t="s">
-        <v>279</v>
+        <v>280</v>
       </c>
       <c r="E91" t="s">
-        <v>292</v>
+        <v>293</v>
       </c>
       <c r="F91" t="s">
-        <v>292</v>
+        <v>293</v>
       </c>
     </row>
     <row r="92" spans="1:6">
@@ -3081,13 +3090,13 @@
         <v>201</v>
       </c>
       <c r="D92" t="s">
-        <v>280</v>
+        <v>281</v>
       </c>
       <c r="E92" t="s">
-        <v>292</v>
+        <v>293</v>
       </c>
       <c r="F92" t="s">
-        <v>292</v>
+        <v>293</v>
       </c>
     </row>
     <row r="93" spans="1:6">
@@ -3101,13 +3110,13 @@
         <v>202</v>
       </c>
       <c r="D93" t="s">
-        <v>281</v>
+        <v>282</v>
       </c>
       <c r="E93" t="s">
-        <v>292</v>
+        <v>293</v>
       </c>
       <c r="F93" t="s">
-        <v>293</v>
+        <v>294</v>
       </c>
     </row>
     <row r="94" spans="1:6">
@@ -3121,13 +3130,13 @@
         <v>203</v>
       </c>
       <c r="D94" t="s">
-        <v>282</v>
+        <v>283</v>
       </c>
       <c r="E94" t="s">
-        <v>292</v>
+        <v>293</v>
       </c>
       <c r="F94" t="s">
-        <v>293</v>
+        <v>294</v>
       </c>
     </row>
     <row r="95" spans="1:6">
@@ -3141,13 +3150,13 @@
         <v>204</v>
       </c>
       <c r="D95" t="s">
-        <v>283</v>
+        <v>284</v>
       </c>
       <c r="E95" t="s">
-        <v>292</v>
+        <v>293</v>
       </c>
       <c r="F95" t="s">
-        <v>293</v>
+        <v>294</v>
       </c>
     </row>
     <row r="96" spans="1:6">
@@ -3161,13 +3170,13 @@
         <v>205</v>
       </c>
       <c r="D96" t="s">
-        <v>284</v>
+        <v>285</v>
       </c>
       <c r="E96" t="s">
-        <v>292</v>
+        <v>293</v>
       </c>
       <c r="F96" t="s">
-        <v>293</v>
+        <v>294</v>
       </c>
     </row>
     <row r="97" spans="1:6">
@@ -3181,13 +3190,13 @@
         <v>206</v>
       </c>
       <c r="D97" t="s">
-        <v>285</v>
+        <v>286</v>
       </c>
       <c r="E97" t="s">
-        <v>292</v>
+        <v>293</v>
       </c>
       <c r="F97" t="s">
-        <v>292</v>
+        <v>293</v>
       </c>
     </row>
     <row r="98" spans="1:6">
@@ -3201,13 +3210,13 @@
         <v>207</v>
       </c>
       <c r="D98" t="s">
-        <v>286</v>
+        <v>287</v>
       </c>
       <c r="E98" t="s">
-        <v>292</v>
+        <v>293</v>
       </c>
       <c r="F98" t="s">
-        <v>292</v>
+        <v>293</v>
       </c>
     </row>
     <row r="99" spans="1:6">
@@ -3224,10 +3233,10 @@
         <v>255</v>
       </c>
       <c r="E99" t="s">
-        <v>293</v>
+        <v>294</v>
       </c>
       <c r="F99" t="s">
-        <v>293</v>
+        <v>294</v>
       </c>
     </row>
     <row r="100" spans="1:6">
@@ -3241,13 +3250,13 @@
         <v>209</v>
       </c>
       <c r="D100" t="s">
-        <v>287</v>
+        <v>288</v>
       </c>
       <c r="E100" t="s">
-        <v>292</v>
+        <v>293</v>
       </c>
       <c r="F100" t="s">
-        <v>292</v>
+        <v>293</v>
       </c>
     </row>
     <row r="101" spans="1:6">
@@ -3261,13 +3270,13 @@
         <v>210</v>
       </c>
       <c r="D101" t="s">
-        <v>287</v>
+        <v>288</v>
       </c>
       <c r="E101" t="s">
-        <v>292</v>
+        <v>293</v>
       </c>
       <c r="F101" t="s">
-        <v>292</v>
+        <v>293</v>
       </c>
     </row>
     <row r="102" spans="1:6">
@@ -3281,13 +3290,13 @@
         <v>211</v>
       </c>
       <c r="D102" t="s">
-        <v>288</v>
+        <v>289</v>
       </c>
       <c r="E102" t="s">
-        <v>292</v>
+        <v>293</v>
       </c>
       <c r="F102" t="s">
-        <v>293</v>
+        <v>294</v>
       </c>
     </row>
     <row r="103" spans="1:6">
@@ -3304,10 +3313,10 @@
         <v>227</v>
       </c>
       <c r="E103" t="s">
-        <v>293</v>
+        <v>294</v>
       </c>
       <c r="F103" t="s">
-        <v>293</v>
+        <v>294</v>
       </c>
     </row>
     <row r="104" spans="1:6">
@@ -3321,13 +3330,13 @@
         <v>213</v>
       </c>
       <c r="D104" t="s">
-        <v>289</v>
+        <v>290</v>
       </c>
       <c r="E104" t="s">
-        <v>293</v>
+        <v>294</v>
       </c>
       <c r="F104" t="s">
-        <v>293</v>
+        <v>294</v>
       </c>
     </row>
     <row r="105" spans="1:6">
@@ -3341,13 +3350,13 @@
         <v>214</v>
       </c>
       <c r="D105" t="s">
-        <v>290</v>
+        <v>291</v>
       </c>
       <c r="E105" t="s">
-        <v>292</v>
+        <v>293</v>
       </c>
       <c r="F105" t="s">
-        <v>292</v>
+        <v>293</v>
       </c>
     </row>
     <row r="106" spans="1:6">
@@ -3364,10 +3373,10 @@
         <v>221</v>
       </c>
       <c r="E106" t="s">
-        <v>292</v>
+        <v>293</v>
       </c>
       <c r="F106" t="s">
-        <v>292</v>
+        <v>293</v>
       </c>
     </row>
     <row r="107" spans="1:6">
@@ -3381,13 +3390,13 @@
         <v>216</v>
       </c>
       <c r="D107" t="s">
-        <v>291</v>
+        <v>292</v>
       </c>
       <c r="E107" t="s">
-        <v>292</v>
+        <v>293</v>
       </c>
       <c r="F107" t="s">
-        <v>292</v>
+        <v>293</v>
       </c>
     </row>
   </sheetData>
